--- a/BigWigs_Status.xlsx
+++ b/BigWigs_Status.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BigWigs!$A$1:$F$7</definedName>
-    <definedName name="Working">Variables!$A$2:$A$3</definedName>
+    <definedName name="Status">Variables!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="60">
   <si>
     <t>Naxxramas</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Working</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Anub'Rekhan</t>
   </si>
   <si>
@@ -70,6 +64,141 @@
   </si>
   <si>
     <t>Git Issue URL</t>
+  </si>
+  <si>
+    <t>Maexxna</t>
+  </si>
+  <si>
+    <t>Web Spray</t>
+  </si>
+  <si>
+    <t>Cocoon</t>
+  </si>
+  <si>
+    <t>Necrotic Poison</t>
+  </si>
+  <si>
+    <t>Gluth</t>
+  </si>
+  <si>
+    <t>Patchwerk</t>
+  </si>
+  <si>
+    <t>Grobbulus</t>
+  </si>
+  <si>
+    <t>Thaddius</t>
+  </si>
+  <si>
+    <t>Debuff Missing</t>
+  </si>
+  <si>
+    <t>Injected Message</t>
+  </si>
+  <si>
+    <t>Poison Cloud</t>
+  </si>
+  <si>
+    <t>Slime Spray</t>
+  </si>
+  <si>
+    <t>Fear Alert</t>
+  </si>
+  <si>
+    <t>Decimate Timer</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>needs testing</t>
+  </si>
+  <si>
+    <t>not working</t>
+  </si>
+  <si>
+    <t>Frenzy Alert</t>
+  </si>
+  <si>
+    <t>Polarity Shift</t>
+  </si>
+  <si>
+    <t>Power Surge</t>
+  </si>
+  <si>
+    <t>Throw Timer</t>
+  </si>
+  <si>
+    <t>Loatheb</t>
+  </si>
+  <si>
+    <t>Blink Cooldown</t>
+  </si>
+  <si>
+    <t>Teleport Timer</t>
+  </si>
+  <si>
+    <t>Wave Alert</t>
+  </si>
+  <si>
+    <t>Curse Timer</t>
+  </si>
+  <si>
+    <t>Decrepit Fever Alert</t>
+  </si>
+  <si>
+    <t>Spore Timer</t>
+  </si>
+  <si>
+    <t>needs DP style grp 2-8 only</t>
+  </si>
+  <si>
+    <t>Inevitable Doom Timer</t>
+  </si>
+  <si>
+    <t>needs the right timer + removecursetrigger</t>
+  </si>
+  <si>
+    <t>Instructor Razuvious</t>
+  </si>
+  <si>
+    <t>Heigan the Unclean</t>
+  </si>
+  <si>
+    <t>Noth the Plaguebringer</t>
+  </si>
+  <si>
+    <t>Unbalancing Strike</t>
+  </si>
+  <si>
+    <t>Disrupting Shout Timer</t>
+  </si>
+  <si>
+    <t>Shield Wall Timer</t>
+  </si>
+  <si>
+    <t>Gothik the Harvester</t>
+  </si>
+  <si>
+    <t>Room Arrival</t>
+  </si>
+  <si>
+    <t>Wave Timers</t>
+  </si>
+  <si>
+    <t>The Four Horsemen</t>
+  </si>
+  <si>
+    <t>Mark Timer</t>
+  </si>
+  <si>
+    <t>Meteor Timer</t>
+  </si>
+  <si>
+    <t>Holy Wrath Timer</t>
+  </si>
+  <si>
+    <t>Void Zone timer</t>
   </si>
 </sst>
 </file>
@@ -111,22 +240,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -423,19 +537,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" customWidth="1"/>
     <col min="6" max="6" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -450,13 +564,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -464,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -478,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -492,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -506,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -520,13 +634,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -534,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -548,20 +662,544 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F7"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
-      <formula1>Working</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D40">
+      <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -571,27 +1209,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/BigWigs_Status.xlsx
+++ b/BigWigs_Status.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BigWigs!$A$1:$F$7</definedName>
-    <definedName name="Status">Variables!$A$2:$A$4</definedName>
+    <definedName name="Status">Variables!$A$2:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="105">
   <si>
     <t>Naxxramas</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Mechanics</t>
   </si>
   <si>
-    <t>Working</t>
-  </si>
-  <si>
     <t>Anub'Rekhan</t>
   </si>
   <si>
@@ -199,6 +196,144 @@
   </si>
   <si>
     <t>Void Zone timer</t>
+  </si>
+  <si>
+    <t>Working - live</t>
+  </si>
+  <si>
+    <t>Working - test</t>
+  </si>
+  <si>
+    <t>occational no timer</t>
+  </si>
+  <si>
+    <t>Temple of Ahn'Qiraj</t>
+  </si>
+  <si>
+    <t>The Prophet Skeram</t>
+  </si>
+  <si>
+    <t>no Mind Control on VG</t>
+  </si>
+  <si>
+    <t>Mind Control</t>
+  </si>
+  <si>
+    <t>Arcane Explotion Timer</t>
+  </si>
+  <si>
+    <t>The Bug Family</t>
+  </si>
+  <si>
+    <t>Toxic Volley</t>
+  </si>
+  <si>
+    <t>Fear Timer</t>
+  </si>
+  <si>
+    <t>Heal Timer</t>
+  </si>
+  <si>
+    <t>Charge Timer</t>
+  </si>
+  <si>
+    <t>Battleguard Sartura</t>
+  </si>
+  <si>
+    <t>Whirlwind Timer</t>
+  </si>
+  <si>
+    <t>Fankriss the Unyielding</t>
+  </si>
+  <si>
+    <t>Worm Alert</t>
+  </si>
+  <si>
+    <t>not working on VG, no combatlog data</t>
+  </si>
+  <si>
+    <t>Player Teleported</t>
+  </si>
+  <si>
+    <t>Viscidus</t>
+  </si>
+  <si>
+    <t>Poison Volley</t>
+  </si>
+  <si>
+    <t>Toxin Cloud</t>
+  </si>
+  <si>
+    <t>Freeze Warning</t>
+  </si>
+  <si>
+    <t>Princess Huhuran</t>
+  </si>
+  <si>
+    <t>Wyvern Sting</t>
+  </si>
+  <si>
+    <t>Berserk Timer</t>
+  </si>
+  <si>
+    <t>Poison Bolt Timer</t>
+  </si>
+  <si>
+    <t>Anubisath Defender</t>
+  </si>
+  <si>
+    <t>Plague Bar</t>
+  </si>
+  <si>
+    <t>Thunderclap Timer</t>
+  </si>
+  <si>
+    <t>Shadowbolt Voley Timer</t>
+  </si>
+  <si>
+    <t>Add Timer</t>
+  </si>
+  <si>
+    <t>Explode Warning</t>
+  </si>
+  <si>
+    <t>Enrage Warning</t>
+  </si>
+  <si>
+    <t>The Twin Emperors</t>
+  </si>
+  <si>
+    <t>Bug Explode Warning &amp; Bar</t>
+  </si>
+  <si>
+    <t>Blizzard Warning</t>
+  </si>
+  <si>
+    <t>Ouro</t>
+  </si>
+  <si>
+    <t>Sweep</t>
+  </si>
+  <si>
+    <t>Sandblast</t>
+  </si>
+  <si>
+    <t>Submerge</t>
+  </si>
+  <si>
+    <t>Emerge</t>
+  </si>
+  <si>
+    <t>C'Thun</t>
+  </si>
+  <si>
+    <t>P1 Tentacle Timers</t>
+  </si>
+  <si>
+    <t>P1 Dark Glare Timers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1 Run in Timers </t>
   </si>
 </sst>
 </file>
@@ -537,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,13 +699,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -578,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -592,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -606,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -620,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -634,13 +769,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -662,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -676,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -690,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -704,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -746,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -788,13 +923,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -802,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -816,13 +951,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -830,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -844,13 +979,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -858,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -872,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -886,13 +1021,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -900,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -914,13 +1049,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -942,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -956,13 +1091,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -970,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -984,13 +1119,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -998,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1012,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
         <v>42</v>
-      </c>
-      <c r="D33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,16 +1164,16 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1060,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,13 +1209,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1088,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
         <v>52</v>
       </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
         <v>55</v>
       </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1144,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1158,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1172,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,19 +1321,644 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
         <v>59</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" t="s">
         <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F7"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D95">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -1209,10 +1969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A5" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,22 +1982,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/BigWigs_Status.xlsx
+++ b/BigWigs_Status.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,15 +11,15 @@
     <sheet name="Variables" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BigWigs!$A$1:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BigWigs!$A$1:$F$95</definedName>
     <definedName name="Status">Variables!$A$2:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="103">
   <si>
     <t>Naxxramas</t>
   </si>
@@ -147,13 +147,7 @@
     <t>Spore Timer</t>
   </si>
   <si>
-    <t>needs DP style grp 2-8 only</t>
-  </si>
-  <si>
     <t>Inevitable Doom Timer</t>
-  </si>
-  <si>
-    <t>needs the right timer + removecursetrigger</t>
   </si>
   <si>
     <t>Instructor Razuvious</t>
@@ -339,7 +333,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,22 +367,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -426,9 +438,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,9 +473,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,9 +525,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -672,13 +718,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
@@ -870,7 +917,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -957,7 +1004,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,7 +1018,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,7 +1032,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1049,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1077,13 +1124,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1105,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -1119,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -1133,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
@@ -1142,7 +1189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1153,13 +1200,10 @@
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1170,13 +1214,10 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1184,52 +1225,52 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
         <v>43</v>
       </c>
-      <c r="D35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
       <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
         <v>48</v>
       </c>
-      <c r="D36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1237,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1251,125 +1292,125 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
         <v>51</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
         <v>53</v>
       </c>
-      <c r="D40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
         <v>54</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
         <v>55</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" t="s">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
         <v>62</v>
       </c>
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" t="s">
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" t="s">
-        <v>66</v>
-      </c>
       <c r="D47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
@@ -1378,82 +1419,82 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
         <v>67</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
         <v>68</v>
       </c>
-      <c r="D49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
         <v>69</v>
       </c>
-      <c r="D50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
         <v>70</v>
       </c>
-      <c r="D51" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>71</v>
       </c>
-      <c r="D52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" t="s">
-        <v>73</v>
-      </c>
       <c r="D53" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -1462,113 +1503,113 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
         <v>30</v>
       </c>
       <c r="E55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>77</v>
       </c>
-      <c r="D56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
         <v>78</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
         <v>79</v>
       </c>
-      <c r="D57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
         <v>80</v>
       </c>
-      <c r="D58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
         <v>81</v>
       </c>
-      <c r="D59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" t="s">
-        <v>83</v>
-      </c>
       <c r="D61" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
         <v>31</v>
@@ -1577,386 +1618,407 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" t="s">
         <v>85</v>
       </c>
-      <c r="D63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
         <v>86</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" t="s">
         <v>87</v>
       </c>
-      <c r="D64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" t="s">
         <v>88</v>
       </c>
-      <c r="D65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" t="s">
         <v>89</v>
       </c>
-      <c r="D66" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
         <v>90</v>
       </c>
-      <c r="D67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" t="s">
         <v>91</v>
       </c>
-      <c r="D68" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>92</v>
       </c>
-      <c r="D69" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" t="s">
-        <v>94</v>
-      </c>
       <c r="D70" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
         <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
         <v>93</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" t="s">
         <v>95</v>
       </c>
-      <c r="D72" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" t="s">
         <v>96</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" t="s">
         <v>97</v>
       </c>
-      <c r="D74" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" t="s">
         <v>98</v>
       </c>
-      <c r="D75" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" t="s">
         <v>99</v>
       </c>
-      <c r="D76" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>100</v>
       </c>
-      <c r="D77" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" t="s">
         <v>101</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
         <v>102</v>
       </c>
-      <c r="D78" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" t="s">
-        <v>101</v>
-      </c>
-      <c r="C79" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" t="s">
-        <v>104</v>
-      </c>
       <c r="D80" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D81" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D82" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D83" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D84" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D85" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D86" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D87" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D88" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D89" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D90" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D91" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D92" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D93" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D94" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D95" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F7"/>
+  <autoFilter ref="A1:F95">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Naxxramas"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="needs testing"/>
+        <filter val="not working"/>
+        <filter val="Working - test"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A1:F1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$D1="Working - live"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D1="needs testing"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D95">
       <formula1>Status</formula1>
@@ -1975,7 +2037,7 @@
       <selection activeCell="A5" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
   </cols>
@@ -1987,12 +2049,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/BigWigs_Status.xlsx
+++ b/BigWigs_Status.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Variables" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BigWigs!$A$1:$F$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BigWigs!$A$1:$F$96</definedName>
     <definedName name="Status">Variables!$A$2:$A$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="110">
   <si>
     <t>Naxxramas</t>
   </si>
@@ -328,6 +328,27 @@
   </si>
   <si>
     <t xml:space="preserve">P1 Run in Timers </t>
+  </si>
+  <si>
+    <t>Molten Core</t>
+  </si>
+  <si>
+    <t>Baron Geddon</t>
+  </si>
+  <si>
+    <t>Bomb Timer</t>
+  </si>
+  <si>
+    <t>Ignite Mana Timer</t>
+  </si>
+  <si>
+    <t>Inferno Timer</t>
+  </si>
+  <si>
+    <t>Impale Timer</t>
+  </si>
+  <si>
+    <t>need right api type for impale on raid</t>
   </si>
 </sst>
 </file>
@@ -373,14 +394,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -719,10 +740,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -780,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -788,13 +809,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -805,10 +829,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -819,10 +843,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -833,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -847,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -858,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,7 +899,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -889,7 +913,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -903,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -914,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -931,7 +955,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -942,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -959,7 +983,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
@@ -973,7 +997,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -987,7 +1011,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -998,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1015,7 +1039,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
@@ -1029,7 +1053,7 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>58</v>
@@ -1040,13 +1064,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,7 +1081,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
@@ -1071,7 +1095,7 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -1085,7 +1109,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
@@ -1096,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,7 +1137,7 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
         <v>58</v>
@@ -1127,7 +1151,7 @@
         <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
         <v>58</v>
@@ -1141,7 +1165,7 @@
         <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
         <v>58</v>
@@ -1152,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,7 +1193,7 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
@@ -1183,24 +1207,24 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1211,7 +1235,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>57</v>
@@ -1225,7 +1249,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>57</v>
@@ -1236,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
         <v>57</v>
@@ -1253,7 +1277,7 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
         <v>57</v>
@@ -1267,24 +1291,24 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,24 +1319,24 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1323,7 +1347,7 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
         <v>57</v>
@@ -1337,7 +1361,7 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
         <v>57</v>
@@ -1351,7 +1375,7 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
         <v>57</v>
@@ -1365,30 +1389,27 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
         <v>57</v>
       </c>
-      <c r="E45" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1399,10 +1420,13 @@
         <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
         <v>29</v>
+      </c>
+      <c r="E47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1413,7 +1437,7 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
         <v>29</v>
@@ -1424,10 +1448,10 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
         <v>29</v>
@@ -1441,7 +1465,7 @@
         <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
         <v>29</v>
@@ -1455,7 +1479,7 @@
         <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
         <v>29</v>
@@ -1469,7 +1493,7 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
         <v>29</v>
@@ -1480,10 +1504,10 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
         <v>29</v>
@@ -1497,7 +1521,7 @@
         <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D54" t="s">
         <v>29</v>
@@ -1508,16 +1532,13 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1528,10 +1549,13 @@
         <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1539,10 +1563,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
         <v>29</v>
@@ -1556,7 +1580,7 @@
         <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
         <v>29</v>
@@ -1570,7 +1594,7 @@
         <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
         <v>29</v>
@@ -1581,10 +1605,10 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D60" t="s">
         <v>29</v>
@@ -1598,7 +1622,7 @@
         <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
         <v>29</v>
@@ -1612,7 +1636,7 @@
         <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D62" t="s">
         <v>29</v>
@@ -1626,7 +1650,7 @@
         <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -1637,13 +1661,13 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1654,10 +1678,10 @@
         <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1668,7 +1692,7 @@
         <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
@@ -1682,7 +1706,7 @@
         <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D67" t="s">
         <v>29</v>
@@ -1696,7 +1720,7 @@
         <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
@@ -1710,7 +1734,7 @@
         <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
         <v>29</v>
@@ -1721,10 +1745,10 @@
         <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D70" t="s">
         <v>29</v>
@@ -1738,10 +1762,10 @@
         <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1752,10 +1776,10 @@
         <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1766,7 +1790,7 @@
         <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D73" t="s">
         <v>29</v>
@@ -1777,10 +1801,10 @@
         <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D74" t="s">
         <v>29</v>
@@ -1794,7 +1818,7 @@
         <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
         <v>29</v>
@@ -1808,7 +1832,7 @@
         <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
         <v>29</v>
@@ -1822,7 +1846,7 @@
         <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
         <v>29</v>
@@ -1833,10 +1857,10 @@
         <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D78" t="s">
         <v>29</v>
@@ -1850,7 +1874,7 @@
         <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
         <v>29</v>
@@ -1864,7 +1888,7 @@
         <v>99</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80" t="s">
         <v>29</v>
@@ -1877,6 +1901,9 @@
       <c r="B81" t="s">
         <v>99</v>
       </c>
+      <c r="C81" t="s">
+        <v>102</v>
+      </c>
       <c r="D81" t="s">
         <v>29</v>
       </c>
@@ -1896,6 +1923,9 @@
       <c r="A83" t="s">
         <v>60</v>
       </c>
+      <c r="B83" t="s">
+        <v>99</v>
+      </c>
       <c r="D83" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2026,58 @@
         <v>29</v>
       </c>
     </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F95">
+  <autoFilter ref="A1:F99">
     <filterColumn colId="0">
       <filters>
         <filter val="Naxxramas"/>
@@ -2012,15 +2092,15 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$D1="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$D1="Working - live"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$D1="needs testing"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D99">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/BigWigs_Status.xlsx
+++ b/BigWigs_Status.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Variables" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BigWigs!$A$1:$F$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BigWigs!$A$1:$F$99</definedName>
     <definedName name="Status">Variables!$A$2:$A$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="109">
   <si>
     <t>Naxxramas</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>Working - test</t>
-  </si>
-  <si>
-    <t>occational no timer</t>
   </si>
   <si>
     <t>Temple of Ahn'Qiraj</t>
@@ -743,7 +740,7 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,13 +809,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -860,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -874,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -902,7 +899,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -916,7 +913,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -930,7 +927,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -944,10 +941,10 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -955,13 +952,13 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -972,10 +969,10 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -986,10 +983,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1000,10 +997,10 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1014,10 +1011,10 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1028,10 +1025,10 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1042,10 +1039,10 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1056,10 +1053,10 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1067,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,7 +1109,7 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1193,7 +1190,7 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
@@ -1311,7 +1308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1322,10 +1319,10 @@
         <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1333,7 @@
         <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1408,36 +1405,33 @@
       <c r="D46" t="s">
         <v>57</v>
       </c>
-      <c r="E46" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
         <v>60</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" t="s">
         <v>61</v>
-      </c>
-      <c r="C47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
         <v>60</v>
       </c>
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
         <v>29</v>
@@ -1445,10 +1439,10 @@
     </row>
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
         <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>61</v>
       </c>
       <c r="C49" t="s">
         <v>37</v>
@@ -1459,13 +1453,13 @@
     </row>
     <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
         <v>65</v>
-      </c>
-      <c r="C50" t="s">
-        <v>66</v>
       </c>
       <c r="D50" t="s">
         <v>29</v>
@@ -1473,13 +1467,13 @@
     </row>
     <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
         <v>29</v>
@@ -1487,13 +1481,13 @@
     </row>
     <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
         <v>29</v>
@@ -1501,13 +1495,13 @@
     </row>
     <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
         <v>29</v>
@@ -1515,13 +1509,13 @@
     </row>
     <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
         <v>70</v>
-      </c>
-      <c r="C54" t="s">
-        <v>71</v>
       </c>
       <c r="D54" t="s">
         <v>29</v>
@@ -1529,10 +1523,10 @@
     </row>
     <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -1543,30 +1537,30 @@
     </row>
     <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
         <v>72</v>
-      </c>
-      <c r="C56" t="s">
-        <v>73</v>
       </c>
       <c r="D56" t="s">
         <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
         <v>29</v>
@@ -1574,13 +1568,13 @@
     </row>
     <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" t="s">
         <v>76</v>
-      </c>
-      <c r="C58" t="s">
-        <v>77</v>
       </c>
       <c r="D58" t="s">
         <v>29</v>
@@ -1588,13 +1582,13 @@
     </row>
     <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" t="s">
         <v>29</v>
@@ -1602,13 +1596,13 @@
     </row>
     <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60" t="s">
         <v>29</v>
@@ -1616,13 +1610,13 @@
     </row>
     <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D61" t="s">
         <v>29</v>
@@ -1630,13 +1624,13 @@
     </row>
     <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
         <v>80</v>
-      </c>
-      <c r="C62" t="s">
-        <v>81</v>
       </c>
       <c r="D62" t="s">
         <v>29</v>
@@ -1644,10 +1638,10 @@
     </row>
     <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
         <v>31</v>
@@ -1658,13 +1652,13 @@
     </row>
     <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D64" t="s">
         <v>29</v>
@@ -1672,13 +1666,13 @@
     </row>
     <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
         <v>84</v>
-      </c>
-      <c r="C65" t="s">
-        <v>85</v>
       </c>
       <c r="D65" t="s">
         <v>58</v>
@@ -1686,13 +1680,13 @@
     </row>
     <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
@@ -1700,13 +1694,13 @@
     </row>
     <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
         <v>29</v>
@@ -1714,13 +1708,13 @@
     </row>
     <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
@@ -1728,13 +1722,13 @@
     </row>
     <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
         <v>29</v>
@@ -1742,13 +1736,13 @@
     </row>
     <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D70" t="s">
         <v>29</v>
@@ -1756,13 +1750,13 @@
     </row>
     <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" t="s">
         <v>91</v>
-      </c>
-      <c r="C71" t="s">
-        <v>92</v>
       </c>
       <c r="D71" t="s">
         <v>29</v>
@@ -1770,10 +1764,10 @@
     </row>
     <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
         <v>37</v>
@@ -1784,13 +1778,13 @@
     </row>
     <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D73" t="s">
         <v>29</v>
@@ -1798,13 +1792,13 @@
     </row>
     <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
         <v>29</v>
@@ -1812,13 +1806,13 @@
     </row>
     <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" t="s">
         <v>94</v>
-      </c>
-      <c r="C75" t="s">
-        <v>95</v>
       </c>
       <c r="D75" t="s">
         <v>29</v>
@@ -1826,13 +1820,13 @@
     </row>
     <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D76" t="s">
         <v>29</v>
@@ -1840,13 +1834,13 @@
     </row>
     <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
         <v>29</v>
@@ -1854,13 +1848,13 @@
     </row>
     <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s">
         <v>29</v>
@@ -1868,13 +1862,13 @@
     </row>
     <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" t="s">
         <v>99</v>
-      </c>
-      <c r="C79" t="s">
-        <v>100</v>
       </c>
       <c r="D79" t="s">
         <v>29</v>
@@ -1882,13 +1876,13 @@
     </row>
     <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D80" t="s">
         <v>29</v>
@@ -1896,13 +1890,13 @@
     </row>
     <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D81" t="s">
         <v>29</v>
@@ -1910,10 +1904,10 @@
     </row>
     <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D82" t="s">
         <v>29</v>
@@ -1921,10 +1915,10 @@
     </row>
     <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D83" t="s">
         <v>29</v>
@@ -1932,7 +1926,7 @@
     </row>
     <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D84" t="s">
         <v>29</v>
@@ -1940,7 +1934,7 @@
     </row>
     <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D85" t="s">
         <v>29</v>
@@ -1948,7 +1942,7 @@
     </row>
     <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D86" t="s">
         <v>29</v>
@@ -1956,7 +1950,7 @@
     </row>
     <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D87" t="s">
         <v>29</v>
@@ -1964,7 +1958,7 @@
     </row>
     <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D88" t="s">
         <v>29</v>
@@ -1972,7 +1966,7 @@
     </row>
     <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D89" t="s">
         <v>29</v>
@@ -1980,7 +1974,7 @@
     </row>
     <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D90" t="s">
         <v>29</v>
@@ -1988,7 +1982,7 @@
     </row>
     <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D91" t="s">
         <v>29</v>
@@ -1996,7 +1990,7 @@
     </row>
     <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D92" t="s">
         <v>29</v>
@@ -2004,7 +1998,7 @@
     </row>
     <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D93" t="s">
         <v>29</v>
@@ -2012,7 +2006,7 @@
     </row>
     <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D94" t="s">
         <v>29</v>
@@ -2020,7 +2014,7 @@
     </row>
     <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D95" t="s">
         <v>29</v>
@@ -2028,7 +2022,7 @@
     </row>
     <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D96" t="s">
         <v>29</v>
@@ -2036,13 +2030,13 @@
     </row>
     <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
         <v>103</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>104</v>
-      </c>
-      <c r="C97" t="s">
-        <v>105</v>
       </c>
       <c r="D97" t="s">
         <v>57</v>
@@ -2050,13 +2044,13 @@
     </row>
     <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="s">
         <v>103</v>
       </c>
-      <c r="B98" t="s">
-        <v>104</v>
-      </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D98" t="s">
         <v>57</v>
@@ -2064,13 +2058,13 @@
     </row>
     <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
         <v>103</v>
       </c>
-      <c r="B99" t="s">
-        <v>104</v>
-      </c>
       <c r="C99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D99" t="s">
         <v>57</v>
@@ -2086,7 +2080,6 @@
     <filterColumn colId="3">
       <filters>
         <filter val="needs testing"/>
-        <filter val="not working"/>
         <filter val="Working - test"/>
       </filters>
     </filterColumn>

--- a/BigWigs_Status.xlsx
+++ b/BigWigs_Status.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Variables" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BigWigs!$A$1:$F$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BigWigs!$A$1:$F$98</definedName>
     <definedName name="Status">Variables!$A$2:$A$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="109">
   <si>
     <t>Naxxramas</t>
   </si>
@@ -736,11 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +943,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -958,7 +957,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -972,7 +971,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -986,7 +985,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1027,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1055,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,7 +1094,7 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,7 +1122,7 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1190,10 +1189,10 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,10 +1203,10 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1215,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1232,13 +1231,13 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1246,27 +1245,27 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1274,13 +1273,13 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1288,27 +1287,27 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1316,27 +1315,27 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1344,13 +1343,13 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1358,13 +1357,13 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1372,13 +1371,13 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1386,27 +1385,30 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -1414,16 +1416,13 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
         <v>29</v>
       </c>
-      <c r="E47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -1431,27 +1430,27 @@
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -1459,13 +1458,13 @@
         <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -1473,13 +1472,13 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -1487,27 +1486,27 @@
         <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1515,27 +1514,30 @@
         <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1543,30 +1545,27 @@
         <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1574,13 +1573,13 @@
         <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1588,27 +1587,27 @@
         <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D60" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1616,13 +1615,13 @@
         <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -1630,13 +1629,13 @@
         <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D62" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -1644,27 +1643,27 @@
         <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -1672,13 +1671,13 @@
         <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -1686,13 +1685,13 @@
         <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -1700,13 +1699,13 @@
         <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D67" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -1714,13 +1713,13 @@
         <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -1728,27 +1727,27 @@
         <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D70" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>59</v>
       </c>
@@ -1756,13 +1755,13 @@
         <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -1770,13 +1769,13 @@
         <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>59</v>
       </c>
@@ -1784,27 +1783,27 @@
         <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D73" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D74" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>59</v>
       </c>
@@ -1812,13 +1811,13 @@
         <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>59</v>
       </c>
@@ -1826,13 +1825,13 @@
         <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -1840,27 +1839,27 @@
         <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D78" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>59</v>
       </c>
@@ -1868,13 +1867,13 @@
         <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>59</v>
       </c>
@@ -1882,27 +1881,24 @@
         <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D80" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>59</v>
       </c>
       <c r="B81" t="s">
         <v>98</v>
       </c>
-      <c r="C81" t="s">
-        <v>101</v>
-      </c>
       <c r="D81" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -1913,18 +1909,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>59</v>
       </c>
-      <c r="B83" t="s">
-        <v>98</v>
-      </c>
       <c r="D83" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>59</v>
       </c>
@@ -1932,7 +1925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>59</v>
       </c>
@@ -1940,7 +1933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>59</v>
       </c>
@@ -1948,7 +1941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>59</v>
       </c>
@@ -1956,7 +1949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>59</v>
       </c>
@@ -1964,7 +1957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>59</v>
       </c>
@@ -1972,7 +1965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>59</v>
       </c>
@@ -1980,7 +1973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>59</v>
       </c>
@@ -1988,7 +1981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>59</v>
       </c>
@@ -1996,7 +1989,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -2004,7 +1997,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -2012,7 +2005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -2020,15 +2013,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>102</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -2036,13 +2035,13 @@
         <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D97" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2050,40 +2049,14 @@
         <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D98" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" t="s">
-        <v>106</v>
-      </c>
-      <c r="D99" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F99">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Naxxramas"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="needs testing"/>
-        <filter val="Working - test"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F98"/>
   <conditionalFormatting sqref="A1:F1048576">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$D1="needs testing"</formula>
@@ -2093,7 +2066,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D98">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/BigWigs_Status.xlsx
+++ b/BigWigs_Status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="112">
   <si>
     <t>Naxxramas</t>
   </si>
@@ -346,6 +346,15 @@
   </si>
   <si>
     <t>need right api type for impale on raid</t>
+  </si>
+  <si>
+    <t>Lucifron</t>
+  </si>
+  <si>
+    <t>Lucifron's Curse Timer</t>
+  </si>
+  <si>
+    <t>Impending Doom Timer</t>
   </si>
 </sst>
 </file>
@@ -736,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,7 +1809,7 @@
         <v>94</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,7 +1823,7 @@
         <v>95</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,7 +1837,7 @@
         <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,7 +1851,7 @@
         <v>97</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,6 +2062,34 @@
       </c>
       <c r="D98" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2066,7 +2103,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D100">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/BigWigs_Status.xlsx
+++ b/BigWigs_Status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="123">
   <si>
     <t>Naxxramas</t>
   </si>
@@ -355,6 +355,39 @@
   </si>
   <si>
     <t>Impending Doom Timer</t>
+  </si>
+  <si>
+    <t>Blackwing Lair</t>
+  </si>
+  <si>
+    <t>Chromaggus</t>
+  </si>
+  <si>
+    <t>Breath Timer</t>
+  </si>
+  <si>
+    <t>Vulnerability detection</t>
+  </si>
+  <si>
+    <t>Razorgore the Untamed</t>
+  </si>
+  <si>
+    <t>Egg Count</t>
+  </si>
+  <si>
+    <t>no combatlog data</t>
+  </si>
+  <si>
+    <t>Vaelastrasz the Corrupt</t>
+  </si>
+  <si>
+    <t>Mob Spawn Timer</t>
+  </si>
+  <si>
+    <t>Burning Timer</t>
+  </si>
+  <si>
+    <t>Flame Breath</t>
   </si>
 </sst>
 </file>
@@ -396,7 +429,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -745,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1192,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1103,7 +1206,7 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2036,7 +2139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -2050,7 +2153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2064,7 +2167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -2078,7 +2181,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -2092,18 +2195,178 @@
         <v>58</v>
       </c>
     </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" t="s">
+        <v>117</v>
+      </c>
+      <c r="D101" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" t="s">
+        <v>62</v>
+      </c>
+      <c r="D102" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" t="s">
+        <v>120</v>
+      </c>
+      <c r="D103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" t="s">
+        <v>122</v>
+      </c>
+      <c r="D105" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F98"/>
-  <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A1:F99 A436:F1048576">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$D1="needs testing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$D1="Working - live"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A100:F435">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$D100="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D100="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D113">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/BigWigs_Status.xlsx
+++ b/BigWigs_Status.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Variables" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BigWigs!$A$1:$F$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BigWigs!$A$1:$F$112</definedName>
     <definedName name="Status">Variables!$A$2:$A$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="149">
   <si>
     <t>Naxxramas</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Fear Timer</t>
   </si>
   <si>
-    <t>Heal Timer</t>
-  </si>
-  <si>
     <t>Charge Timer</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>Berserk Timer</t>
   </si>
   <si>
-    <t>Poison Bolt Timer</t>
-  </si>
-  <si>
     <t>Anubisath Defender</t>
   </si>
   <si>
@@ -324,9 +318,6 @@
     <t>P1 Dark Glare Timers</t>
   </si>
   <si>
-    <t xml:space="preserve">P1 Run in Timers </t>
-  </si>
-  <si>
     <t>Molten Core</t>
   </si>
   <si>
@@ -388,6 +379,93 @@
   </si>
   <si>
     <t>Flame Breath</t>
+  </si>
+  <si>
+    <t>Firemaw</t>
+  </si>
+  <si>
+    <t>Shadow Flame Timer</t>
+  </si>
+  <si>
+    <t>Flame Buffet Timer</t>
+  </si>
+  <si>
+    <t>Wing Buffed Timer</t>
+  </si>
+  <si>
+    <t>Ebonroc</t>
+  </si>
+  <si>
+    <t>Shadow of Ebonroc</t>
+  </si>
+  <si>
+    <t>Flamegor</t>
+  </si>
+  <si>
+    <t>Nefarian</t>
+  </si>
+  <si>
+    <t>Landing Timer</t>
+  </si>
+  <si>
+    <t>Class Calls</t>
+  </si>
+  <si>
+    <t>Magmadar</t>
+  </si>
+  <si>
+    <t>Gehennas</t>
+  </si>
+  <si>
+    <t>Garr</t>
+  </si>
+  <si>
+    <t>Shazzrah</t>
+  </si>
+  <si>
+    <t>Sulfuron Harbinger</t>
+  </si>
+  <si>
+    <t>Majordomo Executus</t>
+  </si>
+  <si>
+    <t>Ragnaros</t>
+  </si>
+  <si>
+    <t>Golemagg the Incinerator</t>
+  </si>
+  <si>
+    <t>Split Warning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal </t>
+  </si>
+  <si>
+    <t>no timer just casting bar</t>
+  </si>
+  <si>
+    <t>P2 Detection</t>
+  </si>
+  <si>
+    <t>P2 Tentacle Timers</t>
+  </si>
+  <si>
+    <t>P2 Giant Eye Timers</t>
+  </si>
+  <si>
+    <t>P2 Claw Tentacle Timers</t>
+  </si>
+  <si>
+    <t>P2 Weakening Detection</t>
+  </si>
+  <si>
+    <t>needs to be called manually</t>
+  </si>
+  <si>
+    <t>P2 Timers after Weakening</t>
+  </si>
+  <si>
+    <t>need to fix P2 Timers first</t>
   </si>
 </sst>
 </file>
@@ -429,7 +507,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -848,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -909,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -920,13 +1026,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -940,7 +1046,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -954,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -968,7 +1074,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -982,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -996,7 +1102,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,7 +1116,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1024,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1038,7 +1144,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1052,7 +1158,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -1234,7 +1340,7 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1248,7 +1354,7 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1262,7 +1368,7 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1276,7 +1382,7 @@
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,7 +1396,7 @@
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1304,7 +1410,7 @@
         <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1318,7 +1424,7 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1514,7 +1620,7 @@
         <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
         <v>61</v>
@@ -1531,7 +1637,7 @@
         <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1542,10 +1648,10 @@
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1559,7 +1665,7 @@
         <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1573,7 +1679,7 @@
         <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1584,10 +1690,13 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="E51" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1598,10 +1707,10 @@
         <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1609,13 +1718,13 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
         <v>69</v>
       </c>
-      <c r="C53" t="s">
-        <v>70</v>
-      </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,13 +1732,13 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,16 +1746,16 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s">
         <v>71</v>
-      </c>
-      <c r="C55" t="s">
-        <v>72</v>
       </c>
       <c r="D55" t="s">
         <v>30</v>
       </c>
       <c r="E55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1654,13 +1763,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1668,10 +1777,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
         <v>75</v>
-      </c>
-      <c r="C57" t="s">
-        <v>76</v>
       </c>
       <c r="D57" t="s">
         <v>29</v>
@@ -1682,10 +1791,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
         <v>29</v>
@@ -1696,10 +1805,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" t="s">
         <v>29</v>
@@ -1710,13 +1819,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1724,13 +1833,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
         <v>79</v>
       </c>
-      <c r="C61" t="s">
-        <v>80</v>
-      </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,13 +1847,13 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
         <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1752,13 +1861,13 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
         <v>82</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1766,13 +1875,13 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" t="s">
         <v>83</v>
       </c>
-      <c r="C64" t="s">
-        <v>84</v>
-      </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1780,10 +1889,10 @@
         <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
@@ -1794,10 +1903,10 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
@@ -1808,10 +1917,10 @@
         <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
         <v>29</v>
@@ -1822,10 +1931,10 @@
         <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
@@ -1836,7 +1945,7 @@
         <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
         <v>89</v>
@@ -1850,13 +1959,13 @@
         <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1864,13 +1973,13 @@
         <v>59</v>
       </c>
       <c r="B71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" t="s">
         <v>90</v>
       </c>
-      <c r="C71" t="s">
-        <v>37</v>
-      </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1878,10 +1987,10 @@
         <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D72" t="s">
         <v>29</v>
@@ -1892,13 +2001,13 @@
         <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1906,10 +2015,10 @@
         <v>59</v>
       </c>
       <c r="B74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" t="s">
         <v>93</v>
-      </c>
-      <c r="C74" t="s">
-        <v>94</v>
       </c>
       <c r="D74" t="s">
         <v>58</v>
@@ -1920,10 +2029,10 @@
         <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D75" t="s">
         <v>58</v>
@@ -1934,10 +2043,10 @@
         <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D76" t="s">
         <v>58</v>
@@ -1948,7 +2057,7 @@
         <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
         <v>97</v>
@@ -1962,13 +2071,13 @@
         <v>59</v>
       </c>
       <c r="B78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" t="s">
         <v>98</v>
       </c>
-      <c r="C78" t="s">
-        <v>99</v>
-      </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1976,13 +2085,13 @@
         <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1990,265 +2099,355 @@
         <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="C81" t="s">
+        <v>143</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="C82" t="s">
+        <v>144</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>59</v>
       </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="s">
+        <v>145</v>
+      </c>
       <c r="D83" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>59</v>
       </c>
+      <c r="B84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" t="s">
+        <v>147</v>
+      </c>
       <c r="D84" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>109</v>
+      </c>
+      <c r="B85" t="s">
+        <v>113</v>
+      </c>
+      <c r="C85" t="s">
+        <v>114</v>
       </c>
       <c r="D85" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>109</v>
+      </c>
+      <c r="B86" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" t="s">
+        <v>62</v>
       </c>
       <c r="D86" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>109</v>
+      </c>
+      <c r="B87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" t="s">
+        <v>117</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>109</v>
+      </c>
+      <c r="B88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" t="s">
+        <v>118</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>109</v>
+      </c>
+      <c r="B89" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" t="s">
+        <v>119</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>59</v>
+        <v>109</v>
+      </c>
+      <c r="B90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" t="s">
+        <v>121</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>109</v>
+      </c>
+      <c r="B91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" t="s">
+        <v>122</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>109</v>
+      </c>
+      <c r="B92" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" t="s">
+        <v>123</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>109</v>
+      </c>
+      <c r="B93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" t="s">
+        <v>123</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>109</v>
+      </c>
+      <c r="B94" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" t="s">
+        <v>121</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>109</v>
+      </c>
+      <c r="B95" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" t="s">
+        <v>125</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D96" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D97" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="D98" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>109</v>
       </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
         <v>110</v>
       </c>
-      <c r="D99" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="s">
-        <v>109</v>
-      </c>
       <c r="C100" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D100" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C101" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D101" t="s">
-        <v>30</v>
-      </c>
-      <c r="E101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C102" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="D102" t="s">
-        <v>30</v>
-      </c>
-      <c r="E102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C103" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D103" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C104" t="s">
         <v>121</v>
@@ -2257,77 +2456,104 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D105" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>108</v>
       </c>
       <c r="D106" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="B107" t="s">
+        <v>130</v>
       </c>
       <c r="D107" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="B108" t="s">
+        <v>131</v>
       </c>
       <c r="D108" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="B109" t="s">
+        <v>132</v>
       </c>
       <c r="D109" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="B110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" t="s">
+        <v>101</v>
       </c>
       <c r="D110" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="B111" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" t="s">
+        <v>102</v>
       </c>
       <c r="D111" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D112" t="s">
         <v>57</v>
@@ -2335,38 +2561,127 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
-      </c>
-      <c r="C113" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D113" t="s">
-        <v>57</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>99</v>
+      </c>
+      <c r="B114" t="s">
+        <v>134</v>
+      </c>
+      <c r="D114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>99</v>
+      </c>
+      <c r="B115" t="s">
+        <v>137</v>
+      </c>
+      <c r="D115" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>99</v>
+      </c>
+      <c r="B116" t="s">
+        <v>135</v>
+      </c>
+      <c r="D116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>99</v>
+      </c>
+      <c r="B117" t="s">
+        <v>136</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F98"/>
-  <conditionalFormatting sqref="A1:F99 A436:F1048576">
-    <cfRule type="expression" dxfId="11" priority="7">
+  <autoFilter ref="A1:F84"/>
+  <conditionalFormatting sqref="E102:F104 E113:F127 A105:F105 A110:F112 A106:C106 E106:F109 A128:F1048576 A1:F100">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>$D1="needs testing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>$D1="Working - live"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100:F435">
+  <conditionalFormatting sqref="A101:F101">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$D101="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$D101="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:A104 C102:D104">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$D102="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D102="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102:B104">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$D102="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D102="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107:C107">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$D107="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D107="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108:C109 A118:D127 A113:C117">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$D108="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D108="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106:D109">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$D106="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D106="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D113:D117">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$D100="needs testing"</formula>
+      <formula>$D113="needs testing"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D100="Working - live"</formula>
+      <formula>$D113="Working - live"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D127">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/BigWigs_Status.xlsx
+++ b/BigWigs_Status.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Variables" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BigWigs!$A$1:$F$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BigWigs!$A$1:$F$114</definedName>
     <definedName name="Status">Variables!$A$2:$A$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="163">
   <si>
     <t>Naxxramas</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Thunderclap Timer</t>
   </si>
   <si>
-    <t>Shadowbolt Voley Timer</t>
-  </si>
-  <si>
     <t>Add Timer</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>The Twin Emperors</t>
   </si>
   <si>
-    <t>Bug Explode Warning &amp; Bar</t>
-  </si>
-  <si>
     <t>Blizzard Warning</t>
   </si>
   <si>
@@ -466,6 +460,54 @@
   </si>
   <si>
     <t>need to fix P2 Timers first</t>
+  </si>
+  <si>
+    <t>Initial Timers</t>
+  </si>
+  <si>
+    <t>Conflag Timer</t>
+  </si>
+  <si>
+    <t>Add Dead Counter</t>
+  </si>
+  <si>
+    <t>Banish Fades Warning</t>
+  </si>
+  <si>
+    <t>Blink Timer</t>
+  </si>
+  <si>
+    <t>Daeden Magic Timer</t>
+  </si>
+  <si>
+    <t>Spell Lock Timer</t>
+  </si>
+  <si>
+    <t>Zul'Gurub</t>
+  </si>
+  <si>
+    <t>High Priestess Jeklik</t>
+  </si>
+  <si>
+    <t>High Priest Venoxis</t>
+  </si>
+  <si>
+    <t>High Priestess Mar'li</t>
+  </si>
+  <si>
+    <t>Bloodlord Mandokir</t>
+  </si>
+  <si>
+    <t>High Priest Thekal</t>
+  </si>
+  <si>
+    <t>Jin'do the Hexxer</t>
+  </si>
+  <si>
+    <t>Hakkar</t>
+  </si>
+  <si>
+    <t>High Priestess Arlokk</t>
   </si>
 </sst>
 </file>
@@ -507,7 +549,329 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -954,20 +1318,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="44.625" customWidth="1"/>
+    <col min="6" max="6" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1026,13 +1390,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1648,7 +2012,7 @@
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D48" t="s">
         <v>58</v>
@@ -1690,13 +2054,13 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
         <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1783,7 +2147,7 @@
         <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1797,7 +2161,7 @@
         <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1881,7 +2245,7 @@
         <v>83</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1895,7 +2259,7 @@
         <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,7 +2273,7 @@
         <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1923,7 +2287,7 @@
         <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1931,13 +2295,13 @@
         <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1945,13 +2309,13 @@
         <v>59</v>
       </c>
       <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
         <v>88</v>
       </c>
-      <c r="C69" t="s">
-        <v>89</v>
-      </c>
       <c r="D69" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1959,10 +2323,10 @@
         <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
         <v>57</v>
@@ -1973,13 +2337,13 @@
         <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
         <v>90</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1987,13 +2351,13 @@
         <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2001,7 +2365,7 @@
         <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
         <v>92</v>
@@ -2015,7 +2379,7 @@
         <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
         <v>93</v>
@@ -2029,10 +2393,10 @@
         <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
         <v>58</v>
@@ -2043,10 +2407,10 @@
         <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
         <v>58</v>
@@ -2057,10 +2421,10 @@
         <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="D77" t="s">
         <v>58</v>
@@ -2071,10 +2435,10 @@
         <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
         <v>58</v>
@@ -2085,13 +2449,13 @@
         <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
         <v>141</v>
       </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2099,13 +2463,13 @@
         <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
         <v>142</v>
       </c>
       <c r="D80" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2113,7 +2477,7 @@
         <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
         <v>143</v>
@@ -2121,137 +2485,137 @@
       <c r="D81" t="s">
         <v>30</v>
       </c>
+      <c r="E81" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D82" t="s">
         <v>30</v>
       </c>
+      <c r="E82" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D83" t="s">
         <v>30</v>
       </c>
       <c r="E83" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="D84" t="s">
         <v>30</v>
       </c>
       <c r="E84" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
-      </c>
-      <c r="E85" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C86" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
-      </c>
-      <c r="E86" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C87" t="s">
         <v>117</v>
       </c>
       <c r="D87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C90" t="s">
         <v>121</v>
@@ -2262,13 +2626,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D91" t="s">
         <v>57</v>
@@ -2276,13 +2640,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
         <v>57</v>
@@ -2290,10 +2654,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C93" t="s">
         <v>123</v>
@@ -2304,7 +2668,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
         <v>124</v>
@@ -2318,13 +2682,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
         <v>124</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D95" t="s">
         <v>57</v>
@@ -2332,13 +2696,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C96" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="D96" t="s">
         <v>57</v>
@@ -2346,13 +2710,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" t="s">
         <v>109</v>
-      </c>
-      <c r="B97" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" t="s">
-        <v>121</v>
       </c>
       <c r="D97" t="s">
         <v>57</v>
@@ -2360,27 +2724,27 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D99" t="s">
         <v>57</v>
@@ -2388,13 +2752,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D100" t="s">
         <v>58</v>
@@ -2402,27 +2766,27 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C101" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="D101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C102" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D102" t="s">
         <v>58</v>
@@ -2430,13 +2794,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="D103" t="s">
         <v>58</v>
@@ -2444,13 +2808,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D104" t="s">
         <v>58</v>
@@ -2458,102 +2822,111 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D105" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B107" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="C107" t="s">
+        <v>148</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="C108" t="s">
+        <v>147</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="C109" t="s">
+        <v>39</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B110" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C110" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="D110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B111" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C111" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="D111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>97</v>
+      </c>
+      <c r="B112" t="s">
+        <v>98</v>
+      </c>
+      <c r="C112" t="s">
         <v>99</v>
-      </c>
-      <c r="B112" t="s">
-        <v>100</v>
-      </c>
-      <c r="C112" t="s">
-        <v>103</v>
       </c>
       <c r="D112" t="s">
         <v>57</v>
@@ -2561,127 +2934,486 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B113" t="s">
-        <v>133</v>
+        <v>98</v>
+      </c>
+      <c r="C113" t="s">
+        <v>100</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B114" t="s">
-        <v>134</v>
+        <v>98</v>
+      </c>
+      <c r="C114" t="s">
+        <v>101</v>
       </c>
       <c r="D114" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B115" t="s">
-        <v>137</v>
+        <v>131</v>
+      </c>
+      <c r="C115" t="s">
+        <v>147</v>
       </c>
       <c r="D115" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="C116" t="s">
+        <v>151</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="C117" t="s">
+        <v>153</v>
       </c>
       <c r="D117" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>97</v>
+      </c>
+      <c r="B118" t="s">
+        <v>131</v>
+      </c>
+      <c r="C118" t="s">
+        <v>152</v>
+      </c>
+      <c r="D118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>97</v>
+      </c>
+      <c r="B120" t="s">
+        <v>132</v>
+      </c>
+      <c r="D120" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" t="s">
+        <v>135</v>
+      </c>
+      <c r="D121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>97</v>
+      </c>
+      <c r="B122" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>97</v>
+      </c>
+      <c r="B123" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>154</v>
+      </c>
+      <c r="B124" t="s">
+        <v>155</v>
+      </c>
+      <c r="D124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" t="s">
+        <v>156</v>
+      </c>
+      <c r="D125" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" t="s">
+        <v>157</v>
+      </c>
+      <c r="D126" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>154</v>
+      </c>
+      <c r="B127" t="s">
+        <v>158</v>
+      </c>
+      <c r="D127" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>154</v>
+      </c>
+      <c r="B128" t="s">
+        <v>162</v>
+      </c>
+      <c r="D128" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" t="s">
+        <v>159</v>
+      </c>
+      <c r="D129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>154</v>
+      </c>
+      <c r="B130" t="s">
+        <v>160</v>
+      </c>
+      <c r="D130" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131" t="s">
+        <v>161</v>
+      </c>
+      <c r="D131" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F84"/>
-  <conditionalFormatting sqref="E102:F104 E113:F127 A105:F105 A110:F112 A106:C106 E106:F109 A128:F1048576 A1:F100">
-    <cfRule type="expression" dxfId="15" priority="21">
+  <autoFilter ref="A1:F82"/>
+  <conditionalFormatting sqref="E100:F102 E115:F115 A103:F103 A112:F114 A104:C104 E104:F106 A1:F98 E108:F108 E111:F111 E120:F133 A134:F1048576 A133:D133 A129:A132 C129:D132">
+    <cfRule type="expression" dxfId="61" priority="73">
       <formula>$D1="needs testing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="22">
+    <cfRule type="expression" dxfId="60" priority="74">
       <formula>$D1="Working - live"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101:F101">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$D101="needs testing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$D101="Working - live"</formula>
+  <conditionalFormatting sqref="A99:F99">
+    <cfRule type="expression" dxfId="59" priority="65">
+      <formula>$D99="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="66">
+      <formula>$D99="Working - live"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A104 C102:D104">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$D102="needs testing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$D102="Working - live"</formula>
+  <conditionalFormatting sqref="A100:A102 C100:D102">
+    <cfRule type="expression" dxfId="57" priority="63">
+      <formula>$D100="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="64">
+      <formula>$D100="Working - live"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B104">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$D102="needs testing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$D102="Working - live"</formula>
+  <conditionalFormatting sqref="B100:B102">
+    <cfRule type="expression" dxfId="55" priority="61">
+      <formula>$D100="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="62">
+      <formula>$D100="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:C106">
+    <cfRule type="expression" dxfId="53" priority="59">
+      <formula>$D105="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="60">
+      <formula>$D105="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108:C108 A115:C115 A111:C111 A120:C123 A124:D127 A128 C128:D128">
+    <cfRule type="expression" dxfId="51" priority="57">
+      <formula>$D108="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="58">
+      <formula>$D108="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104">
+    <cfRule type="expression" dxfId="49" priority="55">
+      <formula>$D104="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="56">
+      <formula>$D104="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115 D120:D123">
+    <cfRule type="expression" dxfId="47" priority="53">
+      <formula>$D115="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="54">
+      <formula>$D115="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107:F107">
+    <cfRule type="expression" dxfId="45" priority="51">
+      <formula>$D107="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="52">
+      <formula>$D107="Working - live"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:C107">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="43" priority="49">
       <formula>$D107="needs testing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="42" priority="50">
       <formula>$D107="Working - live"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108:C109 A118:D127 A113:C117">
-    <cfRule type="expression" dxfId="5" priority="5">
+  <conditionalFormatting sqref="D105:D107">
+    <cfRule type="expression" dxfId="41" priority="45">
+      <formula>$D105="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="46">
+      <formula>$D105="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109:F109">
+    <cfRule type="expression" dxfId="39" priority="43">
+      <formula>$D109="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="44">
+      <formula>$D109="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109:C109">
+    <cfRule type="expression" dxfId="37" priority="41">
+      <formula>$D109="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="42">
+      <formula>$D109="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108:D109">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>$D108="needs testing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>$D108="Working - live"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D106:D109">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$D106="needs testing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D106="Working - live"</formula>
+  <conditionalFormatting sqref="E110:F110">
+    <cfRule type="expression" dxfId="33" priority="35">
+      <formula>$D110="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="36">
+      <formula>$D110="Working - live"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D113:D117">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$D113="needs testing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D113="Working - live"</formula>
+  <conditionalFormatting sqref="A110:C110">
+    <cfRule type="expression" dxfId="31" priority="33">
+      <formula>$D110="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="34">
+      <formula>$D110="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D111">
+    <cfRule type="expression" dxfId="29" priority="25">
+      <formula>$D111="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="26">
+      <formula>$D111="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D110">
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>$D110="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>$D110="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119:F119">
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>$D119="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>$D119="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119:C119">
+    <cfRule type="expression" dxfId="23" priority="21">
+      <formula>$D119="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>$D119="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119">
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>$D119="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$D119="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117:F117">
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>$D117="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>$D117="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:C117">
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>$D117="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$D117="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>$D117="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$D117="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:F118">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$D118="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$D118="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118:C118">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>$D118="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>$D118="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D118">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>$D118="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$D118="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116:F116">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$D116="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$D116="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116:C116">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$D116="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$D116="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$D116="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$D116="Working - live"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:B131">
+    <cfRule type="expression" dxfId="1" priority="79">
+      <formula>$D129="needs testing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="80">
+      <formula>$D129="Working - live"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D127">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D133">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -2698,9 +3430,9 @@
       <selection activeCell="A5" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
